--- a/express/food.xlsx
+++ b/express/food.xlsx
@@ -34,10 +34,10 @@
     <t>trans_fat</t>
   </si>
   <si>
-    <t>carbonhydrate</t>
-  </si>
-  <si>
-    <t>sugars</t>
+    <t>carbohydrate</t>
+  </si>
+  <si>
+    <t>sugar</t>
   </si>
   <si>
     <t>sodium</t>
@@ -559,7 +559,7 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
